--- a/日报与周报-叶家俊2018.05.25.xlsx
+++ b/日报与周报-叶家俊2018.05.25.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>时间</t>
   </si>
@@ -64,15 +64,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2018/1/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>IOS Diapersens debug；app测试；</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>diaperSens 硬件代码修改；软硬件联调测试；app问题解决；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Esportal素材制作；Esportal代码修改；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>App迁移；DiaperSens/Esportal均已迁移至新账户；新账户相关证书生成；</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -556,19 +560,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="5">
-        <v>43121</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>43241</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43242</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>1</v>
@@ -585,9 +589,11 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -626,9 +632,11 @@
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
